--- a/statistics/R/roiObjectLvl_Within-PLI_theta/roiObjectLvl_Within-PLI_theta.xlsx
+++ b/statistics/R/roiObjectLvl_Within-PLI_theta/roiObjectLvl_Within-PLI_theta.xlsx
@@ -104,7 +104,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>0.019386755120450905</v>
+        <v>0.01777119219374651</v>
       </c>
     </row>
     <row r="3">
@@ -118,7 +118,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0385165412833397</v>
+        <v>0.035306829509728077</v>
       </c>
     </row>
     <row r="4">
@@ -132,7 +132,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="0">
-        <v>0.02951733202950102</v>
+        <v>0.02705755436037599</v>
       </c>
     </row>
     <row r="5">
@@ -146,7 +146,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>0.015652532422718801</v>
+        <v>0.014348154720825457</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +160,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.024361152563792343</v>
+        <v>-0.022331056516809611</v>
       </c>
     </row>
     <row r="7">
@@ -174,7 +174,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="0">
-        <v>0.011667304741742879</v>
+        <v>0.010695029346597718</v>
       </c>
     </row>
     <row r="8">
@@ -188,7 +188,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="0">
-        <v>0.049549507989405606</v>
+        <v>0.045420382323621777</v>
       </c>
     </row>
     <row r="9">
@@ -202,7 +202,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.023589883911403819</v>
+        <v>-0.021624060252120159</v>
       </c>
     </row>
     <row r="10">
@@ -216,7 +216,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="0">
-        <v>0.010562248614860992</v>
+        <v>0.0096820612302892517</v>
       </c>
     </row>
     <row r="11">
@@ -230,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="0">
-        <v>0.00075840612925009987</v>
+        <v>0.00069520561847924434</v>
       </c>
     </row>
     <row r="12">
@@ -244,7 +244,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="0">
-        <v>0.011804194668644796</v>
+        <v>0.010820511779591091</v>
       </c>
     </row>
     <row r="13">
@@ -258,7 +258,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="0">
-        <v>0.019726641089831465</v>
+        <v>0.018082754332345685</v>
       </c>
     </row>
     <row r="14">
@@ -272,7 +272,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.010766329820038334</v>
+        <v>-0.009869135668368445</v>
       </c>
     </row>
     <row r="15">
@@ -286,7 +286,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.0010075301183507523</v>
+        <v>-0.00092356927515491183</v>
       </c>
     </row>
     <row r="16">
@@ -300,7 +300,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="0">
-        <v>0.02697027525402812</v>
+        <v>0.024722752316192476</v>
       </c>
     </row>
     <row r="17">
@@ -314,7 +314,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="0">
-        <v>0.0045548922360516553</v>
+        <v>0.0041753178830472581</v>
       </c>
     </row>
     <row r="18">
@@ -328,7 +328,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="0">
-        <v>0.0051203987130760686</v>
+        <v>0.004693698820319725</v>
       </c>
     </row>
     <row r="19">
@@ -342,7 +342,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="0">
-        <v>0.017288191201234759</v>
+        <v>0.015847508601131821</v>
       </c>
     </row>
     <row r="20">
@@ -356,7 +356,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="0">
-        <v>0.0090385860572196886</v>
+        <v>0.0082853705524512655</v>
       </c>
     </row>
     <row r="21">
@@ -370,7 +370,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="0">
-        <v>0.00052132150287614865</v>
+        <v>0.00047787804430315939</v>
       </c>
     </row>
     <row r="22">
@@ -384,7 +384,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.0048435919683733619</v>
+        <v>-0.0044399593043420449</v>
       </c>
     </row>
     <row r="23">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.0093410103291526325</v>
+        <v>-0.0085625928017231678</v>
       </c>
     </row>
     <row r="24">
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.0052580403043959167</v>
+        <v>-0.0048198702790294701</v>
       </c>
     </row>
     <row r="25">
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.039907718587095575</v>
+        <v>-0.036582075371504263</v>
       </c>
     </row>
     <row r="26">
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.0063692237605280644</v>
+        <v>-0.0058384551138173646</v>
       </c>
     </row>
     <row r="27">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="0">
-        <v>-0.019273497008419849</v>
+        <v>-0.01766737225771825</v>
       </c>
     </row>
     <row r="28">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="0">
-        <v>0.02733033325918699</v>
+        <v>0.025052805487588148</v>
       </c>
     </row>
     <row r="29">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="0">
-        <v>0.016699020407460352</v>
+        <v>0.015307435373505429</v>
       </c>
     </row>
     <row r="30">
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="0">
-        <v>0.015840289753333125</v>
+        <v>0.014520265607222083</v>
       </c>
     </row>
     <row r="31">
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.0072997428069891956</v>
+        <v>-0.0066914309064067257</v>
       </c>
     </row>
     <row r="32">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="0">
-        <v>-0.0025113602753354947</v>
+        <v>-0.0023020802523908146</v>
       </c>
     </row>
     <row r="33">
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="0">
-        <v>-0.011621121479294116</v>
+        <v>-0.010652694689352815</v>
       </c>
     </row>
     <row r="34">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="0">
-        <v>0.021429390994608444</v>
+        <v>0.0196436084117243</v>
       </c>
     </row>
     <row r="35">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="0">
-        <v>-0.015498597330895481</v>
+        <v>-0.014207047553320862</v>
       </c>
     </row>
     <row r="36">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="0">
-        <v>-0.05146812512883947</v>
+        <v>-0.047179114701436153</v>
       </c>
     </row>
     <row r="37">
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="0">
-        <v>-0.0094297754235642683</v>
+        <v>-0.0086439608049339589</v>
       </c>
     </row>
     <row r="38">
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="0">
-        <v>0.019802918140513992</v>
+        <v>0.01815267496213796</v>
       </c>
     </row>
     <row r="39">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="0">
-        <v>0.0092764857257611189</v>
+        <v>0.0085034452486143497</v>
       </c>
     </row>
     <row r="40">
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="0">
-        <v>-0.003678583129928914</v>
+        <v>-0.0033720345357681758</v>
       </c>
     </row>
     <row r="41">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="0">
-        <v>-0.0093276959218987487</v>
+        <v>-0.0085503879284071771</v>
       </c>
     </row>
     <row r="42">
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="0">
-        <v>-0.017194511604449514</v>
+        <v>-0.015761635637412119</v>
       </c>
     </row>
     <row r="43">
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="0">
-        <v>0.027697284264313338</v>
+        <v>0.02538917724228712</v>
       </c>
     </row>
     <row r="44">
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="0">
-        <v>-0.00018631639185001658</v>
+        <v>-0.00017079002586256609</v>
       </c>
     </row>
     <row r="45">
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="0">
-        <v>0.031501609101288575</v>
+        <v>0.028876475009514402</v>
       </c>
     </row>
     <row r="46">
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="0">
-        <v>0.03737944652848163</v>
+        <v>0.034264492651108258</v>
       </c>
     </row>
     <row r="47">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="0">
-        <v>-0.012836414026890286</v>
+        <v>-0.011766712857982808</v>
       </c>
     </row>
     <row r="48">
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="0">
-        <v>0.0055706755892759308</v>
+        <v>0.0051064526235027885</v>
       </c>
     </row>
     <row r="49">
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="0">
-        <v>0.0010333622080381799</v>
+        <v>0.00094724869070161866</v>
       </c>
     </row>
     <row r="50">
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="0">
-        <v>0.0013932582255565262</v>
+        <v>0.0012771533734267093</v>
       </c>
     </row>
     <row r="51">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="0">
-        <v>-0.0033903929784936393</v>
+        <v>-0.0031078602302859748</v>
       </c>
     </row>
     <row r="52">
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="0">
-        <v>-0.0063073963695081114</v>
+        <v>-0.0057817800053824864</v>
       </c>
     </row>
     <row r="53">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="0">
-        <v>-0.045632429519897655</v>
+        <v>-0.041829727059906063</v>
       </c>
     </row>
     <row r="54">
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="0">
-        <v>0.0050065829051336164</v>
+        <v>0.0045893676630391345</v>
       </c>
     </row>
     <row r="55">
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="0">
-        <v>-0.026782017154687976</v>
+        <v>-0.024550182391797237</v>
       </c>
     </row>
     <row r="56">
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="0">
-        <v>-0.013842719277501858</v>
+        <v>-0.012689159337710199</v>
       </c>
     </row>
     <row r="57">
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="0">
-        <v>0.016055454842640149</v>
+        <v>0.014717500272420192</v>
       </c>
     </row>
     <row r="58">
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="0">
-        <v>-0.017192234583538968</v>
+        <v>-0.015759548368244058</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="0">
-        <v>0.0030137916007481058</v>
+        <v>0.0027626423006856804</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="0">
-        <v>0.019422485726833472</v>
+        <v>0.017803945249597386</v>
       </c>
     </row>
     <row r="61">
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="0">
-        <v>0.0058207358931995357</v>
+        <v>0.0053356745687662688</v>
       </c>
     </row>
     <row r="62">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="0">
-        <v>0.027576288445853747</v>
+        <v>0.025278264408699125</v>
       </c>
     </row>
     <row r="63">
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="0">
-        <v>-0.0036318187972027571</v>
+        <v>-0.0033291672307690923</v>
       </c>
     </row>
     <row r="64">
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="0">
-        <v>0.024055199831597318</v>
+        <v>0.022050599845630847</v>
       </c>
     </row>
     <row r="65">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="0">
-        <v>0.008627417404795612</v>
+        <v>0.0079084659543959268</v>
       </c>
     </row>
     <row r="66">
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="0">
-        <v>-0.0096912541264527197</v>
+        <v>-0.0088836496159150902</v>
       </c>
     </row>
     <row r="67">
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="0">
-        <v>-0.0016191537930668742</v>
+        <v>-0.0014842243103112551</v>
       </c>
     </row>
     <row r="68">
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="0">
-        <v>-9.0383385577541553e-06</v>
+        <v>-8.2851436778441645e-06</v>
       </c>
     </row>
     <row r="69">
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="0">
-        <v>-0.027183599466208241</v>
+        <v>-0.024918299510690745</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="0">
-        <v>0.022997876773620474</v>
+        <v>0.021081387042485467</v>
       </c>
     </row>
     <row r="71">
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="0">
-        <v>0.015037800363887355</v>
+        <v>0.01378465033356352</v>
       </c>
     </row>
     <row r="72">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="0">
-        <v>-0.0027306295422238058</v>
+        <v>-0.0025030770803717295</v>
       </c>
     </row>
     <row r="73">
@@ -1098,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="0">
-        <v>0.0069443439008655683</v>
+        <v>0.006365648575793359</v>
       </c>
     </row>
     <row r="74">
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="0">
-        <v>0.0041623720195149705</v>
+        <v>0.0038155076845552971</v>
       </c>
     </row>
     <row r="75">
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="0">
-        <v>-0.0055323769091884523</v>
+        <v>-0.0050713455000894747</v>
       </c>
     </row>
     <row r="76">
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="0">
-        <v>-0.0048484315565060498</v>
+        <v>-0.004444395593463879</v>
       </c>
     </row>
     <row r="77">
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="0">
-        <v>0.0025763465661163831</v>
+        <v>0.0023616510189400919</v>
       </c>
     </row>
     <row r="78">
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="0">
-        <v>-0.0066851153807674923</v>
+        <v>-0.0061280224323702059</v>
       </c>
     </row>
     <row r="79">
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="0">
-        <v>-0.01404898473409677</v>
+        <v>-0.012878236006255428</v>
       </c>
     </row>
     <row r="80">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="0">
-        <v>0.03924878628435946</v>
+        <v>0.035978054093996126</v>
       </c>
     </row>
     <row r="81">
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="0">
-        <v>0.0043911312027253846</v>
+        <v>0.0040252036024982507</v>
       </c>
     </row>
     <row r="82">
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="0">
-        <v>-0.0091988865444243562</v>
+        <v>-0.008432312665722308</v>
       </c>
     </row>
     <row r="83">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="0">
-        <v>0.012372673127821865</v>
+        <v>0.011341617033836793</v>
       </c>
     </row>
     <row r="84">
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="0">
-        <v>0.0085950737543389333</v>
+        <v>0.0078788176081440175</v>
       </c>
     </row>
     <row r="85">
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="0">
-        <v>0.018660681393600775</v>
+        <v>0.017105624610800729</v>
       </c>
     </row>
     <row r="86">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="0">
-        <v>-0.0017767390955795714</v>
+        <v>-0.0016286775042814172</v>
       </c>
     </row>
     <row r="87">
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="0">
-        <v>0.0059204334948040338</v>
+        <v>0.0054270640369038503</v>
       </c>
     </row>
     <row r="88">
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="0">
-        <v>-0.024000306609002264</v>
+        <v>-0.02200028105825208</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="0">
-        <v>-0.0026540329743989788</v>
+        <v>-0.0024328635598658277</v>
       </c>
     </row>
     <row r="90">
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="0">
-        <v>-0.0010355820632499957</v>
+        <v>-0.00094928355797918584</v>
       </c>
     </row>
     <row r="91">
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="0">
-        <v>0.013127253536460659</v>
+        <v>0.012033315741755535</v>
       </c>
     </row>
     <row r="92">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="0">
-        <v>0.041176952408836398</v>
+        <v>0.037745539708100129</v>
       </c>
     </row>
     <row r="93">
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="0">
-        <v>0.0050460472657269384</v>
+        <v>0.0046255433269163926</v>
       </c>
     </row>
     <row r="94">
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="0">
-        <v>-0.014598731990036251</v>
+        <v>-0.013382170990866749</v>
       </c>
     </row>
     <row r="95">
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="0">
-        <v>-0.0036731123687646083</v>
+        <v>-0.0033670196713674883</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="0">
-        <v>-0.025669656104438721</v>
+        <v>-0.023530518095735586</v>
       </c>
     </row>
     <row r="97">
@@ -1434,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="D97" s="0">
-        <v>0.013461513461513364</v>
+        <v>0.012339720673053889</v>
       </c>
     </row>
     <row r="98">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="0">
-        <v>0.0024250899536941706</v>
+        <v>0.0022229991242196379</v>
       </c>
     </row>
     <row r="99">
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="0">
-        <v>0.0067149569764804462</v>
+        <v>0.0061553772284403396</v>
       </c>
     </row>
     <row r="100">
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="0">
-        <v>0.0030909304140335214</v>
+        <v>0.0028333528795307927</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="0">
-        <v>-0.0078613256362616846</v>
+        <v>-0.00720621516657316</v>
       </c>
     </row>
     <row r="102">
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="0">
-        <v>0.013709982602322146</v>
+        <v>0.012567484052128652</v>
       </c>
     </row>
     <row r="103">
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="0">
-        <v>-0.019055212481713435</v>
+        <v>-0.017467278108237394</v>
       </c>
     </row>
     <row r="104">
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="0">
-        <v>-0.012731002223755894</v>
+        <v>-0.011670085371776218</v>
       </c>
     </row>
     <row r="105">
@@ -1546,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="0">
-        <v>-0.011023294585460808</v>
+        <v>-0.010104686703339083</v>
       </c>
     </row>
     <row r="106">
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="0">
-        <v>0.0083846315730373711</v>
+        <v>0.0076859122752843123</v>
       </c>
     </row>
     <row r="107">
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="0">
-        <v>0.0024094375285652059</v>
+        <v>0.0022086510678514526</v>
       </c>
     </row>
     <row r="108">
@@ -1588,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="0">
-        <v>-0.020058317573845519</v>
+        <v>-0.01838679110935848</v>
       </c>
     </row>
     <row r="109">
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="0">
-        <v>-0.030238267264915242</v>
+        <v>-0.027718411659505671</v>
       </c>
     </row>
     <row r="110">
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="0">
-        <v>-0.0032460982771541635</v>
+        <v>-0.0029755900873912333</v>
       </c>
     </row>
     <row r="111">
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="0">
-        <v>0.0027235547830514739</v>
+        <v>0.002496591884463828</v>
       </c>
     </row>
     <row r="112">
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="0">
-        <v>-0.021673441963296958</v>
+        <v>-0.019867321799688975</v>
       </c>
     </row>
     <row r="113">
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="0">
-        <v>-0.0088709244719474278</v>
+        <v>-0.008131680765951721</v>
       </c>
     </row>
     <row r="114">
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="0">
-        <v>0.027379223031396949</v>
+        <v>0.025097621112113944</v>
       </c>
     </row>
     <row r="115">
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="0">
-        <v>-0.006256178360672382</v>
+        <v>-0.0057348301639496002</v>
       </c>
     </row>
     <row r="116">
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="0">
-        <v>-0.031930292799857984</v>
+        <v>-0.029269435066536509</v>
       </c>
     </row>
     <row r="117">
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="0">
-        <v>0.023566547021924622</v>
+        <v>0.021602668103430922</v>
       </c>
     </row>
     <row r="118">
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="0">
-        <v>-0.019907867733954754</v>
+        <v>-0.018248878756125242</v>
       </c>
     </row>
     <row r="119">
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="0">
-        <v>-0.016200322264395606</v>
+        <v>-0.014850295409029268</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="0">
-        <v>0.019548253043676245</v>
+        <v>0.017919231956703308</v>
       </c>
     </row>
     <row r="121">
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="0">
-        <v>-0.026583722235896279</v>
+        <v>-0.02436841204957152</v>
       </c>
     </row>
     <row r="122">
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="0">
-        <v>-0.0090553651934725532</v>
+        <v>-0.0083007514273499283</v>
       </c>
     </row>
     <row r="123">
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="0">
-        <v>0.0017345862001659218</v>
+        <v>0.0015900373501521181</v>
       </c>
     </row>
     <row r="124">
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="0">
-        <v>0.013992563029124216</v>
+        <v>0.012826516110030606</v>
       </c>
     </row>
     <row r="125">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="0">
-        <v>0.015412960829571387</v>
+        <v>0.014128547427107119</v>
       </c>
     </row>
     <row r="126">
@@ -1840,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="0">
-        <v>0.0082600629184479968</v>
+        <v>0.0075717243419106683</v>
       </c>
     </row>
     <row r="127">
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="0">
-        <v>-0.0036448079926341137</v>
+        <v>-0.003341073993247845</v>
       </c>
     </row>
     <row r="128">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="0">
-        <v>-0.0083477275506260717</v>
+        <v>-0.0076520835880738436</v>
       </c>
     </row>
     <row r="129">
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="0">
-        <v>-0.029111712341525986</v>
+        <v>-0.026685736313065478</v>
       </c>
     </row>
     <row r="130">
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="D130" s="0">
-        <v>0.028004125258129786</v>
+        <v>0.02567044815328573</v>
       </c>
     </row>
     <row r="131">
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="0">
-        <v>0.021718282587847859</v>
+        <v>0.0199084257055272</v>
       </c>
     </row>
     <row r="132">
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="0">
-        <v>0.038221399205380924</v>
+        <v>0.035036282604932467</v>
       </c>
     </row>
     <row r="133">
@@ -1938,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="0">
-        <v>0.012570673855839987</v>
+        <v>0.011523117701186747</v>
       </c>
     </row>
     <row r="134">
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="0">
-        <v>0.011262533001663466</v>
+        <v>0.010323988584858057</v>
       </c>
     </row>
     <row r="135">
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="0">
-        <v>-0.0083651798945467148</v>
+        <v>-0.0076680815700012062</v>
       </c>
     </row>
     <row r="136">
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="0">
-        <v>-0.0098548794200967182</v>
+        <v>-0.0090336394684220611</v>
       </c>
     </row>
     <row r="137">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="0">
-        <v>-0.024297403588021627</v>
+        <v>-0.022272619955686468</v>
       </c>
     </row>
     <row r="138">
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="0">
-        <v>-0.02086848654354384</v>
+        <v>-0.019129445998248396</v>
       </c>
     </row>
     <row r="139">
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="0">
-        <v>-0.002991922900389743</v>
+        <v>-0.0027425959920238663</v>
       </c>
     </row>
     <row r="140">
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="0">
-        <v>-0.012296209447633599</v>
+        <v>-0.011271525326997434</v>
       </c>
     </row>
     <row r="141">
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="0">
-        <v>-0.01170509866162045</v>
+        <v>-0.010729673773152093</v>
       </c>
     </row>
     <row r="142">
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="0">
-        <v>0.020826252051548422</v>
+        <v>0.019090731047252785</v>
       </c>
     </row>
     <row r="143">
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="0">
-        <v>-0.022161348248304791</v>
+        <v>-0.020314569227612711</v>
       </c>
     </row>
     <row r="144">
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="0">
-        <v>-0.011597163319354287</v>
+        <v>-0.010630733042741425</v>
       </c>
     </row>
     <row r="145">
@@ -2106,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="0">
-        <v>0.025622310269049375</v>
+        <v>0.02348711774662865</v>
       </c>
     </row>
     <row r="146">
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="0">
-        <v>-0.028613841733597489</v>
+        <v>-0.026229354922464421</v>
       </c>
     </row>
     <row r="147">
@@ -2134,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="0">
-        <v>-0.0062421379191566762</v>
+        <v>-0.0057219597592267912</v>
       </c>
     </row>
     <row r="148">
@@ -2148,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="0">
-        <v>0.025506054220306773</v>
+        <v>0.023380549701947806</v>
       </c>
     </row>
     <row r="149">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="0">
-        <v>0.001712695947944376</v>
+        <v>0.0015699712856157011</v>
       </c>
     </row>
     <row r="150">
@@ -2176,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="0">
-        <v>-0.0043536039912851487</v>
+        <v>-0.0039908036586780438</v>
       </c>
     </row>
     <row r="151">
@@ -2190,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="0">
-        <v>-0.0052185784282971492</v>
+        <v>-0.004783696892605771</v>
       </c>
     </row>
     <row r="152">
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="0">
-        <v>-0.018662031247843547</v>
+        <v>-0.017106861977189858</v>
       </c>
     </row>
     <row r="153">
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="0">
-        <v>0.0037176640914247105</v>
+        <v>0.0034078587504726698</v>
       </c>
     </row>
     <row r="154">
@@ -2232,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="0">
-        <v>0.033981097335134547</v>
+        <v>0.031149339223873418</v>
       </c>
     </row>
     <row r="155">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="0">
-        <v>0.011547402851750599</v>
+        <v>0.010585119280771549</v>
       </c>
     </row>
     <row r="156">
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="0">
-        <v>-0.00011100011100007023</v>
+        <v>-0.00010175010175006438</v>
       </c>
     </row>
     <row r="157">
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="0">
-        <v>-0.016046820394646555</v>
+        <v>-0.014709585361759259</v>
       </c>
     </row>
     <row r="158">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="0">
-        <v>-0.012681607557383956</v>
+        <v>-0.011624806927601927</v>
       </c>
     </row>
     <row r="159">
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="0">
-        <v>-0.010387055969103609</v>
+        <v>-0.0095214679716784101</v>
       </c>
     </row>
     <row r="160">
@@ -2316,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="0">
-        <v>-0.0093983499780601054</v>
+        <v>-0.0086151541465551151</v>
       </c>
     </row>
     <row r="161">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="0">
-        <v>-0.0075408028824178741</v>
+        <v>-0.0069124026422163198</v>
       </c>
     </row>
     <row r="162">
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="0">
-        <v>-0.01173913910840374</v>
+        <v>-0.010760877516036771</v>
       </c>
     </row>
     <row r="163">
@@ -2358,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="0">
-        <v>0.0024532869801411339</v>
+        <v>0.0022488463984626783</v>
       </c>
     </row>
     <row r="164">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="0">
-        <v>0.011891553653567311</v>
+        <v>0.010900590849103331</v>
       </c>
     </row>
     <row r="165">
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="0">
-        <v>-0.0015707189620232653</v>
+        <v>-0.0014398257151880256</v>
       </c>
     </row>
     <row r="166">
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="D166" s="0">
-        <v>-0.025684940540013079</v>
+        <v>-0.02354452882834529</v>
       </c>
     </row>
     <row r="167">
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="0">
-        <v>0.0016695326629369012</v>
+        <v>0.0015304049410255205</v>
       </c>
     </row>
     <row r="168">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="0">
-        <v>0.0098090185046705858</v>
+        <v>0.0089916002959479768</v>
       </c>
     </row>
     <row r="169">
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="D169" s="0">
-        <v>0.024108806717502373</v>
+        <v>0.022099739491043935</v>
       </c>
     </row>
     <row r="170">
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="0">
-        <v>0.0069853944853944805</v>
+        <v>0.0064032782782783015</v>
       </c>
     </row>
     <row r="171">
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="0">
-        <v>0.015086296064556692</v>
+        <v>0.013829104725843866</v>
       </c>
     </row>
     <row r="172">
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="0">
-        <v>0.030689827791276991</v>
+        <v>0.028132342142003885</v>
       </c>
     </row>
     <row r="173">
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="0">
-        <v>0.0095772014250274373</v>
+        <v>0.0087791013062751833</v>
       </c>
     </row>
     <row r="174">
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="0">
-        <v>0.0041556873078610335</v>
+        <v>0.003809380032205989</v>
       </c>
     </row>
     <row r="175">
@@ -2526,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="0">
-        <v>0.045672838579017105</v>
+        <v>0.041866768697432222</v>
       </c>
     </row>
   </sheetData>

--- a/statistics/R/roiObjectLvl_Within-PLI_theta/roiObjectLvl_Within-PLI_theta.xlsx
+++ b/statistics/R/roiObjectLvl_Within-PLI_theta/roiObjectLvl_Within-PLI_theta.xlsx
@@ -104,7 +104,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>0.01777119219374651</v>
+        <v>0.019386755120450905</v>
       </c>
     </row>
     <row r="3">
@@ -118,7 +118,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="0">
-        <v>0.035306829509728077</v>
+        <v>0.0385165412833397</v>
       </c>
     </row>
     <row r="4">
@@ -132,7 +132,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="0">
-        <v>0.02705755436037599</v>
+        <v>0.02951733202950102</v>
       </c>
     </row>
     <row r="5">
@@ -146,7 +146,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>0.014348154720825457</v>
+        <v>0.015652532422718801</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +160,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.022331056516809611</v>
+        <v>-0.024361152563792343</v>
       </c>
     </row>
     <row r="7">
@@ -174,7 +174,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="0">
-        <v>0.010695029346597718</v>
+        <v>0.011667304741742879</v>
       </c>
     </row>
     <row r="8">
@@ -188,7 +188,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="0">
-        <v>0.045420382323621777</v>
+        <v>0.049549507989405606</v>
       </c>
     </row>
     <row r="9">
@@ -202,7 +202,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.021624060252120159</v>
+        <v>-0.023589883911403819</v>
       </c>
     </row>
     <row r="10">
@@ -216,7 +216,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="0">
-        <v>0.0096820612302892517</v>
+        <v>0.010562248614860992</v>
       </c>
     </row>
     <row r="11">
@@ -230,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="0">
-        <v>0.00069520561847924434</v>
+        <v>0.00075840612925009987</v>
       </c>
     </row>
     <row r="12">
@@ -244,7 +244,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="0">
-        <v>0.010820511779591091</v>
+        <v>0.011804194668644796</v>
       </c>
     </row>
     <row r="13">
@@ -258,7 +258,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="0">
-        <v>0.018082754332345685</v>
+        <v>0.019726641089831465</v>
       </c>
     </row>
     <row r="14">
@@ -272,7 +272,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.009869135668368445</v>
+        <v>-0.010766329820038334</v>
       </c>
     </row>
     <row r="15">
@@ -286,7 +286,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.00092356927515491183</v>
+        <v>-0.0010075301183507523</v>
       </c>
     </row>
     <row r="16">
@@ -300,7 +300,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="0">
-        <v>0.024722752316192476</v>
+        <v>0.02697027525402812</v>
       </c>
     </row>
     <row r="17">
@@ -314,7 +314,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="0">
-        <v>0.0041753178830472581</v>
+        <v>0.0045548922360516553</v>
       </c>
     </row>
     <row r="18">
@@ -328,7 +328,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="0">
-        <v>0.004693698820319725</v>
+        <v>0.0051203987130760686</v>
       </c>
     </row>
     <row r="19">
@@ -342,7 +342,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="0">
-        <v>0.015847508601131821</v>
+        <v>0.017288191201234759</v>
       </c>
     </row>
     <row r="20">
@@ -356,7 +356,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="0">
-        <v>0.0082853705524512655</v>
+        <v>0.0090385860572196886</v>
       </c>
     </row>
     <row r="21">
@@ -370,7 +370,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="0">
-        <v>0.00047787804430315939</v>
+        <v>0.00052132150287614865</v>
       </c>
     </row>
     <row r="22">
@@ -384,7 +384,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.0044399593043420449</v>
+        <v>-0.0048435919683733619</v>
       </c>
     </row>
     <row r="23">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.0085625928017231678</v>
+        <v>-0.0093410103291526325</v>
       </c>
     </row>
     <row r="24">
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.0048198702790294701</v>
+        <v>-0.0052580403043959167</v>
       </c>
     </row>
     <row r="25">
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.036582075371504263</v>
+        <v>-0.039907718587095575</v>
       </c>
     </row>
     <row r="26">
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.0058384551138173646</v>
+        <v>-0.0063692237605280644</v>
       </c>
     </row>
     <row r="27">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="0">
-        <v>-0.01766737225771825</v>
+        <v>-0.019273497008419849</v>
       </c>
     </row>
     <row r="28">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="0">
-        <v>0.025052805487588148</v>
+        <v>0.02733033325918699</v>
       </c>
     </row>
     <row r="29">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="0">
-        <v>0.015307435373505429</v>
+        <v>0.016699020407460352</v>
       </c>
     </row>
     <row r="30">
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="0">
-        <v>0.014520265607222083</v>
+        <v>0.015840289753333125</v>
       </c>
     </row>
     <row r="31">
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.0066914309064067257</v>
+        <v>-0.0072997428069891956</v>
       </c>
     </row>
     <row r="32">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="0">
-        <v>-0.0023020802523908146</v>
+        <v>-0.0025113602753354947</v>
       </c>
     </row>
     <row r="33">
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="0">
-        <v>-0.010652694689352815</v>
+        <v>-0.011621121479294116</v>
       </c>
     </row>
     <row r="34">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="0">
-        <v>0.0196436084117243</v>
+        <v>0.021429390994608444</v>
       </c>
     </row>
     <row r="35">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="0">
-        <v>-0.014207047553320862</v>
+        <v>-0.015498597330895481</v>
       </c>
     </row>
     <row r="36">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="0">
-        <v>-0.047179114701436153</v>
+        <v>-0.05146812512883947</v>
       </c>
     </row>
     <row r="37">
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="0">
-        <v>-0.0086439608049339589</v>
+        <v>-0.0094297754235642683</v>
       </c>
     </row>
     <row r="38">
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="0">
-        <v>0.01815267496213796</v>
+        <v>0.019802918140513992</v>
       </c>
     </row>
     <row r="39">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="0">
-        <v>0.0085034452486143497</v>
+        <v>0.0092764857257611189</v>
       </c>
     </row>
     <row r="40">
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="0">
-        <v>-0.0033720345357681758</v>
+        <v>-0.003678583129928914</v>
       </c>
     </row>
     <row r="41">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="0">
-        <v>-0.0085503879284071771</v>
+        <v>-0.0093276959218987487</v>
       </c>
     </row>
     <row r="42">
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="0">
-        <v>-0.015761635637412119</v>
+        <v>-0.017194511604449514</v>
       </c>
     </row>
     <row r="43">
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="0">
-        <v>0.02538917724228712</v>
+        <v>0.027697284264313338</v>
       </c>
     </row>
     <row r="44">
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="0">
-        <v>-0.00017079002586256609</v>
+        <v>-0.00018631639185001658</v>
       </c>
     </row>
     <row r="45">
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="0">
-        <v>0.028876475009514402</v>
+        <v>0.031501609101288575</v>
       </c>
     </row>
     <row r="46">
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="0">
-        <v>0.034264492651108258</v>
+        <v>0.03737944652848163</v>
       </c>
     </row>
     <row r="47">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="0">
-        <v>-0.011766712857982808</v>
+        <v>-0.012836414026890286</v>
       </c>
     </row>
     <row r="48">
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="0">
-        <v>0.0051064526235027885</v>
+        <v>0.0055706755892759308</v>
       </c>
     </row>
     <row r="49">
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="0">
-        <v>0.00094724869070161866</v>
+        <v>0.0010333622080381799</v>
       </c>
     </row>
     <row r="50">
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="0">
-        <v>0.0012771533734267093</v>
+        <v>0.0013932582255565262</v>
       </c>
     </row>
     <row r="51">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="0">
-        <v>-0.0031078602302859748</v>
+        <v>-0.0033903929784936393</v>
       </c>
     </row>
     <row r="52">
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="0">
-        <v>-0.0057817800053824864</v>
+        <v>-0.0063073963695081114</v>
       </c>
     </row>
     <row r="53">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="0">
-        <v>-0.041829727059906063</v>
+        <v>-0.045632429519897655</v>
       </c>
     </row>
     <row r="54">
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="0">
-        <v>0.0045893676630391345</v>
+        <v>0.0050065829051336164</v>
       </c>
     </row>
     <row r="55">
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="0">
-        <v>-0.024550182391797237</v>
+        <v>-0.026782017154687976</v>
       </c>
     </row>
     <row r="56">
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="0">
-        <v>-0.012689159337710199</v>
+        <v>-0.013842719277501858</v>
       </c>
     </row>
     <row r="57">
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="0">
-        <v>0.014717500272420192</v>
+        <v>0.016055454842640149</v>
       </c>
     </row>
     <row r="58">
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="0">
-        <v>-0.015759548368244058</v>
+        <v>-0.017192234583538968</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="0">
-        <v>0.0027626423006856804</v>
+        <v>0.0030137916007481058</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="0">
-        <v>0.017803945249597386</v>
+        <v>0.019422485726833472</v>
       </c>
     </row>
     <row r="61">
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="0">
-        <v>0.0053356745687662688</v>
+        <v>0.0058207358931995357</v>
       </c>
     </row>
     <row r="62">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="0">
-        <v>0.025278264408699125</v>
+        <v>0.027576288445853747</v>
       </c>
     </row>
     <row r="63">
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="0">
-        <v>-0.0033291672307690923</v>
+        <v>-0.0036318187972027571</v>
       </c>
     </row>
     <row r="64">
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="0">
-        <v>0.022050599845630847</v>
+        <v>0.024055199831597318</v>
       </c>
     </row>
     <row r="65">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="0">
-        <v>0.0079084659543959268</v>
+        <v>0.008627417404795612</v>
       </c>
     </row>
     <row r="66">
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="0">
-        <v>-0.0088836496159150902</v>
+        <v>-0.0096912541264527197</v>
       </c>
     </row>
     <row r="67">
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="0">
-        <v>-0.0014842243103112551</v>
+        <v>-0.0016191537930668742</v>
       </c>
     </row>
     <row r="68">
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="0">
-        <v>-8.2851436778441645e-06</v>
+        <v>-9.0383385577541553e-06</v>
       </c>
     </row>
     <row r="69">
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="0">
-        <v>-0.024918299510690745</v>
+        <v>-0.027183599466208241</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="0">
-        <v>0.021081387042485467</v>
+        <v>0.022997876773620474</v>
       </c>
     </row>
     <row r="71">
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="0">
-        <v>0.01378465033356352</v>
+        <v>0.015037800363887355</v>
       </c>
     </row>
     <row r="72">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="0">
-        <v>-0.0025030770803717295</v>
+        <v>-0.0027306295422238058</v>
       </c>
     </row>
     <row r="73">
@@ -1098,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="0">
-        <v>0.006365648575793359</v>
+        <v>0.0069443439008655683</v>
       </c>
     </row>
     <row r="74">
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="0">
-        <v>0.0038155076845552971</v>
+        <v>0.0041623720195149705</v>
       </c>
     </row>
     <row r="75">
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="0">
-        <v>-0.0050713455000894747</v>
+        <v>-0.0055323769091884523</v>
       </c>
     </row>
     <row r="76">
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="0">
-        <v>-0.004444395593463879</v>
+        <v>-0.0048484315565060498</v>
       </c>
     </row>
     <row r="77">
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="0">
-        <v>0.0023616510189400919</v>
+        <v>0.0025763465661163831</v>
       </c>
     </row>
     <row r="78">
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="0">
-        <v>-0.0061280224323702059</v>
+        <v>-0.0066851153807674923</v>
       </c>
     </row>
     <row r="79">
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="0">
-        <v>-0.012878236006255428</v>
+        <v>-0.01404898473409677</v>
       </c>
     </row>
     <row r="80">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="0">
-        <v>0.035978054093996126</v>
+        <v>0.03924878628435946</v>
       </c>
     </row>
     <row r="81">
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="0">
-        <v>0.0040252036024982507</v>
+        <v>0.0043911312027253846</v>
       </c>
     </row>
     <row r="82">
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="0">
-        <v>-0.008432312665722308</v>
+        <v>-0.0091988865444243562</v>
       </c>
     </row>
     <row r="83">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="0">
-        <v>0.011341617033836793</v>
+        <v>0.012372673127821865</v>
       </c>
     </row>
     <row r="84">
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="0">
-        <v>0.0078788176081440175</v>
+        <v>0.0085950737543389333</v>
       </c>
     </row>
     <row r="85">
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="0">
-        <v>0.017105624610800729</v>
+        <v>0.018660681393600775</v>
       </c>
     </row>
     <row r="86">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="0">
-        <v>-0.0016286775042814172</v>
+        <v>-0.0017767390955795714</v>
       </c>
     </row>
     <row r="87">
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="0">
-        <v>0.0054270640369038503</v>
+        <v>0.0059204334948040338</v>
       </c>
     </row>
     <row r="88">
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="0">
-        <v>-0.02200028105825208</v>
+        <v>-0.024000306609002264</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="0">
-        <v>-0.0024328635598658277</v>
+        <v>-0.0026540329743989788</v>
       </c>
     </row>
     <row r="90">
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="0">
-        <v>-0.00094928355797918584</v>
+        <v>-0.0010355820632499957</v>
       </c>
     </row>
     <row r="91">
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="0">
-        <v>0.012033315741755535</v>
+        <v>0.013127253536460659</v>
       </c>
     </row>
     <row r="92">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="0">
-        <v>0.037745539708100129</v>
+        <v>0.041176952408836398</v>
       </c>
     </row>
     <row r="93">
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="0">
-        <v>0.0046255433269163926</v>
+        <v>0.0050460472657269384</v>
       </c>
     </row>
     <row r="94">
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="0">
-        <v>-0.013382170990866749</v>
+        <v>-0.014598731990036251</v>
       </c>
     </row>
     <row r="95">
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="0">
-        <v>-0.0033670196713674883</v>
+        <v>-0.0036731123687646083</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="0">
-        <v>-0.023530518095735586</v>
+        <v>-0.025669656104438721</v>
       </c>
     </row>
     <row r="97">
@@ -1434,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="D97" s="0">
-        <v>0.012339720673053889</v>
+        <v>0.013461513461513364</v>
       </c>
     </row>
     <row r="98">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="0">
-        <v>0.0022229991242196379</v>
+        <v>0.0024250899536941706</v>
       </c>
     </row>
     <row r="99">
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="0">
-        <v>0.0061553772284403396</v>
+        <v>0.0067149569764804462</v>
       </c>
     </row>
     <row r="100">
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="0">
-        <v>0.0028333528795307927</v>
+        <v>0.0030909304140335214</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="0">
-        <v>-0.00720621516657316</v>
+        <v>-0.0078613256362616846</v>
       </c>
     </row>
     <row r="102">
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="0">
-        <v>0.012567484052128652</v>
+        <v>0.013709982602322146</v>
       </c>
     </row>
     <row r="103">
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="0">
-        <v>-0.017467278108237394</v>
+        <v>-0.019055212481713435</v>
       </c>
     </row>
     <row r="104">
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="0">
-        <v>-0.011670085371776218</v>
+        <v>-0.012731002223755894</v>
       </c>
     </row>
     <row r="105">
@@ -1546,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="0">
-        <v>-0.010104686703339083</v>
+        <v>-0.011023294585460808</v>
       </c>
     </row>
     <row r="106">
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="0">
-        <v>0.0076859122752843123</v>
+        <v>0.0083846315730373711</v>
       </c>
     </row>
     <row r="107">
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="0">
-        <v>0.0022086510678514526</v>
+        <v>0.0024094375285652059</v>
       </c>
     </row>
     <row r="108">
@@ -1588,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="0">
-        <v>-0.01838679110935848</v>
+        <v>-0.020058317573845519</v>
       </c>
     </row>
     <row r="109">
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="0">
-        <v>-0.027718411659505671</v>
+        <v>-0.030238267264915242</v>
       </c>
     </row>
     <row r="110">
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="0">
-        <v>-0.0029755900873912333</v>
+        <v>-0.0032460982771541635</v>
       </c>
     </row>
     <row r="111">
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="0">
-        <v>0.002496591884463828</v>
+        <v>0.0027235547830514739</v>
       </c>
     </row>
     <row r="112">
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="0">
-        <v>-0.019867321799688975</v>
+        <v>-0.021673441963296958</v>
       </c>
     </row>
     <row r="113">
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="0">
-        <v>-0.008131680765951721</v>
+        <v>-0.0088709244719474278</v>
       </c>
     </row>
     <row r="114">
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="0">
-        <v>0.025097621112113944</v>
+        <v>0.027379223031396949</v>
       </c>
     </row>
     <row r="115">
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="0">
-        <v>-0.0057348301639496002</v>
+        <v>-0.006256178360672382</v>
       </c>
     </row>
     <row r="116">
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="0">
-        <v>-0.029269435066536509</v>
+        <v>-0.031930292799857984</v>
       </c>
     </row>
     <row r="117">
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="0">
-        <v>0.021602668103430922</v>
+        <v>0.023566547021924622</v>
       </c>
     </row>
     <row r="118">
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="0">
-        <v>-0.018248878756125242</v>
+        <v>-0.019907867733954754</v>
       </c>
     </row>
     <row r="119">
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="0">
-        <v>-0.014850295409029268</v>
+        <v>-0.016200322264395606</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="0">
-        <v>0.017919231956703308</v>
+        <v>0.019548253043676245</v>
       </c>
     </row>
     <row r="121">
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="0">
-        <v>-0.02436841204957152</v>
+        <v>-0.026583722235896279</v>
       </c>
     </row>
     <row r="122">
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="0">
-        <v>-0.0083007514273499283</v>
+        <v>-0.0090553651934725532</v>
       </c>
     </row>
     <row r="123">
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="0">
-        <v>0.0015900373501521181</v>
+        <v>0.0017345862001659218</v>
       </c>
     </row>
     <row r="124">
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="0">
-        <v>0.012826516110030606</v>
+        <v>0.013992563029124216</v>
       </c>
     </row>
     <row r="125">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="0">
-        <v>0.014128547427107119</v>
+        <v>0.015412960829571387</v>
       </c>
     </row>
     <row r="126">
@@ -1840,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="0">
-        <v>0.0075717243419106683</v>
+        <v>0.0082600629184479968</v>
       </c>
     </row>
     <row r="127">
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="0">
-        <v>-0.003341073993247845</v>
+        <v>-0.0036448079926341137</v>
       </c>
     </row>
     <row r="128">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="0">
-        <v>-0.0076520835880738436</v>
+        <v>-0.0083477275506260717</v>
       </c>
     </row>
     <row r="129">
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="0">
-        <v>-0.026685736313065478</v>
+        <v>-0.029111712341525986</v>
       </c>
     </row>
     <row r="130">
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="D130" s="0">
-        <v>0.02567044815328573</v>
+        <v>0.028004125258129786</v>
       </c>
     </row>
     <row r="131">
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="0">
-        <v>0.0199084257055272</v>
+        <v>0.021718282587847859</v>
       </c>
     </row>
     <row r="132">
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="0">
-        <v>0.035036282604932467</v>
+        <v>0.038221399205380924</v>
       </c>
     </row>
     <row r="133">
@@ -1938,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="0">
-        <v>0.011523117701186747</v>
+        <v>0.012570673855839987</v>
       </c>
     </row>
     <row r="134">
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="0">
-        <v>0.010323988584858057</v>
+        <v>0.011262533001663466</v>
       </c>
     </row>
     <row r="135">
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="0">
-        <v>-0.0076680815700012062</v>
+        <v>-0.0083651798945467148</v>
       </c>
     </row>
     <row r="136">
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="0">
-        <v>-0.0090336394684220611</v>
+        <v>-0.0098548794200967182</v>
       </c>
     </row>
     <row r="137">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="0">
-        <v>-0.022272619955686468</v>
+        <v>-0.024297403588021627</v>
       </c>
     </row>
     <row r="138">
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="0">
-        <v>-0.019129445998248396</v>
+        <v>-0.02086848654354384</v>
       </c>
     </row>
     <row r="139">
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="0">
-        <v>-0.0027425959920238663</v>
+        <v>-0.002991922900389743</v>
       </c>
     </row>
     <row r="140">
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="0">
-        <v>-0.011271525326997434</v>
+        <v>-0.012296209447633599</v>
       </c>
     </row>
     <row r="141">
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="0">
-        <v>-0.010729673773152093</v>
+        <v>-0.01170509866162045</v>
       </c>
     </row>
     <row r="142">
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="0">
-        <v>0.019090731047252785</v>
+        <v>0.020826252051548422</v>
       </c>
     </row>
     <row r="143">
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="0">
-        <v>-0.020314569227612711</v>
+        <v>-0.022161348248304791</v>
       </c>
     </row>
     <row r="144">
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="0">
-        <v>-0.010630733042741425</v>
+        <v>-0.011597163319354287</v>
       </c>
     </row>
     <row r="145">
@@ -2106,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="0">
-        <v>0.02348711774662865</v>
+        <v>0.025622310269049375</v>
       </c>
     </row>
     <row r="146">
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="0">
-        <v>-0.026229354922464421</v>
+        <v>-0.028613841733597489</v>
       </c>
     </row>
     <row r="147">
@@ -2134,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="0">
-        <v>-0.0057219597592267912</v>
+        <v>-0.0062421379191566762</v>
       </c>
     </row>
     <row r="148">
@@ -2148,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="0">
-        <v>0.023380549701947806</v>
+        <v>0.025506054220306773</v>
       </c>
     </row>
     <row r="149">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="0">
-        <v>0.0015699712856157011</v>
+        <v>0.001712695947944376</v>
       </c>
     </row>
     <row r="150">
@@ -2176,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="0">
-        <v>-0.0039908036586780438</v>
+        <v>-0.0043536039912851487</v>
       </c>
     </row>
     <row r="151">
@@ -2190,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="0">
-        <v>-0.004783696892605771</v>
+        <v>-0.0052185784282971492</v>
       </c>
     </row>
     <row r="152">
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="0">
-        <v>-0.017106861977189858</v>
+        <v>-0.018662031247843547</v>
       </c>
     </row>
     <row r="153">
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="0">
-        <v>0.0034078587504726698</v>
+        <v>0.0037176640914247105</v>
       </c>
     </row>
     <row r="154">
@@ -2232,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="0">
-        <v>0.031149339223873418</v>
+        <v>0.033981097335134547</v>
       </c>
     </row>
     <row r="155">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="0">
-        <v>0.010585119280771549</v>
+        <v>0.011547402851750599</v>
       </c>
     </row>
     <row r="156">
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="0">
-        <v>-0.00010175010175006438</v>
+        <v>-0.00011100011100007023</v>
       </c>
     </row>
     <row r="157">
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="0">
-        <v>-0.014709585361759259</v>
+        <v>-0.016046820394646555</v>
       </c>
     </row>
     <row r="158">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="0">
-        <v>-0.011624806927601927</v>
+        <v>-0.012681607557383956</v>
       </c>
     </row>
     <row r="159">
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="0">
-        <v>-0.0095214679716784101</v>
+        <v>-0.010387055969103609</v>
       </c>
     </row>
     <row r="160">
@@ -2316,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="0">
-        <v>-0.0086151541465551151</v>
+        <v>-0.0093983499780601054</v>
       </c>
     </row>
     <row r="161">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="0">
-        <v>-0.0069124026422163198</v>
+        <v>-0.0075408028824178741</v>
       </c>
     </row>
     <row r="162">
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="0">
-        <v>-0.010760877516036771</v>
+        <v>-0.01173913910840374</v>
       </c>
     </row>
     <row r="163">
@@ -2358,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="0">
-        <v>0.0022488463984626783</v>
+        <v>0.0024532869801411339</v>
       </c>
     </row>
     <row r="164">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="0">
-        <v>0.010900590849103331</v>
+        <v>0.011891553653567311</v>
       </c>
     </row>
     <row r="165">
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="0">
-        <v>-0.0014398257151880256</v>
+        <v>-0.0015707189620232653</v>
       </c>
     </row>
     <row r="166">
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="D166" s="0">
-        <v>-0.02354452882834529</v>
+        <v>-0.025684940540013079</v>
       </c>
     </row>
     <row r="167">
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="0">
-        <v>0.0015304049410255205</v>
+        <v>0.0016695326629369012</v>
       </c>
     </row>
     <row r="168">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="0">
-        <v>0.0089916002959479768</v>
+        <v>0.0098090185046705858</v>
       </c>
     </row>
     <row r="169">
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="D169" s="0">
-        <v>0.022099739491043935</v>
+        <v>0.024108806717502373</v>
       </c>
     </row>
     <row r="170">
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="0">
-        <v>0.0064032782782783015</v>
+        <v>0.0069853944853944805</v>
       </c>
     </row>
     <row r="171">
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="0">
-        <v>0.013829104725843866</v>
+        <v>0.015086296064556692</v>
       </c>
     </row>
     <row r="172">
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="0">
-        <v>0.028132342142003885</v>
+        <v>0.030689827791276991</v>
       </c>
     </row>
     <row r="173">
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="0">
-        <v>0.0087791013062751833</v>
+        <v>0.0095772014250274373</v>
       </c>
     </row>
     <row r="174">
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="0">
-        <v>0.003809380032205989</v>
+        <v>0.0041556873078610335</v>
       </c>
     </row>
     <row r="175">
@@ -2526,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="0">
-        <v>0.041866768697432222</v>
+        <v>0.045672838579017105</v>
       </c>
     </row>
   </sheetData>
